--- a/biology/Zoologie/Choristodera/Choristodera.xlsx
+++ b/biology/Zoologie/Choristodera/Choristodera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Choristodères
-Les Choristodera (choristodères en français) forment un ordre fossile de diapsides aquatiques ou semi-aquatiques, vivant en eau douce[1],[2].
-Ils ont vécu dans l'hémisphère nord, en Europe, en Asie et en Amérique du Nord, à partir du Jurassique jusqu'au début du Miocène, avec une grande variété d’espèces durant le Crétacé et le Paléocène[3].
+Les Choristodera (choristodères en français) forment un ordre fossile de diapsides aquatiques ou semi-aquatiques, vivant en eau douce,.
+Ils ont vécu dans l'hémisphère nord, en Europe, en Asie et en Amérique du Nord, à partir du Jurassique jusqu'au début du Miocène, avec une grande variété d’espèces durant le Crétacé et le Paléocène.
 Leur position phylogénétique est encore incertaine.
 </t>
         </is>
@@ -514,12 +526,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Trois grands types de morphologies sont distingués chez les choristodères :
 des animaux de type lézard, de petite taille, une trentaine de centimètres, positionnés en position basale parmi les choristodères ;
 des animaux franchement aquatiques, un peu plus grands, avec un cou extrêmement long à très nombreuses vertèbres cervicales, une longue queue et des membres relativement courts. Ils ressemblent par convergence évolutive à certains grands reptiles marins comme les plésiosaures ou les nothosaures ; ils sont regroupés dans la famille des Hyphalosauridae ;
-des animaux montrant une ressemblance superficielle avec certains crocodiles, comme les gavials actuels, avec un museau long et effilé à dents pointues et une base du crâne très élargie (crâne cordiforme). Ce sont les plus grands choristodères avec une longueur de 2 à 5 mètres dont 30 à 70 centimètres pour le crâne[3]. Les plus grands, et les plus célèbres, sont les genres Simoedosaurus et Champsosaurus. Ils sont regroupés dans le sous-ordre des Neochoristodera qui englobe deux familles, les Simoedosauridae et les Champsosauridae.</t>
+des animaux montrant une ressemblance superficielle avec certains crocodiles, comme les gavials actuels, avec un museau long et effilé à dents pointues et une base du crâne très élargie (crâne cordiforme). Ce sont les plus grands choristodères avec une longueur de 2 à 5 mètres dont 30 à 70 centimètres pour le crâne. Les plus grands, et les plus célèbres, sont les genres Simoedosaurus et Champsosaurus. Ils sont regroupés dans le sous-ordre des Neochoristodera qui englobe deux familles, les Simoedosauridae et les Champsosauridae.</t>
         </is>
       </c>
     </row>
@@ -547,9 +561,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ci dessous, la synthèse du cladogramme de l'ordre Choristodera réalisée par Mikko Haaramo en 2015[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ci dessous, la synthèse du cladogramme de l'ordre Choristodera réalisée par Mikko Haaramo en 2015 :
 </t>
         </is>
       </c>
